--- a/biology/Zoologie/Günther_Enderlein/Günther_Enderlein.xlsx
+++ b/biology/Zoologie/Günther_Enderlein/Günther_Enderlein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%BCnther_Enderlein</t>
+          <t>Günther_Enderlein</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Günther Enderlein (né le 7 juillet 1872 à Leipzig, et décédé le 11 août 1968 à Wentorf bei Hamburg) était un zoologiste et entomologiste allemand qui se lança plus tard dans la fabrication de produits pharmaceutiques à proximité de Hambourg.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%BCnther_Enderlein</t>
+          <t>Günther_Enderlein</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À côté de son travail sur les insectes, Enderlein est aussi connu pour ses hypothèses sur le concept de polymorphisme des micro-organismes et sur les origines du cancer. Appuyées en partie sur le point de vue d'autres chercheurs, ses hypothèses seront réfutées par la médecine moderne[réf. nécessaire].
 Cependant, de façon limitée, certains de ses points de vue sont encore populaires actuellement et ont donné naissance à plusieurs nouveaux concepts et hypothèses. Dans les médecines non conventionnelles, quoique controversée, une procédure de diagnostic se fonde sur la microscopie à fond noir d'Enderlein.
